--- a/PAUL GATURA.xlsx
+++ b/PAUL GATURA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" firstSheet="25" activeTab="29"/>
@@ -38,12 +38,12 @@
     <sheet name="NOVEMBER 21" sheetId="29" r:id="rId29"/>
     <sheet name="DECEMBER 21" sheetId="30" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="170">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -548,11 +548,17 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PAID ON 13/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -854,7 +860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,7 +895,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11819,7 +11825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -12450,7 +12456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -13539,8 +13545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13548,8 +13554,12 @@
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="5"/>
       <c r="G1" s="1"/>
     </row>
@@ -13560,10 +13570,6 @@
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -13621,10 +13627,12 @@
         <f>C5+D5+E5</f>
         <v>10000</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12">
+        <v>4000</v>
+      </c>
       <c r="H5" s="11">
         <f>F5-G5</f>
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -13722,10 +13730,12 @@
         <f>C9+D9+E9</f>
         <v>7000</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12">
+        <v>7000</v>
+      </c>
       <c r="H9" s="11">
         <f>F9-G9</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -13748,11 +13758,11 @@
       </c>
       <c r="G10" s="17">
         <f>SUM(G5:G9)</f>
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="H10" s="16">
         <f>SUM(H5:H9)</f>
-        <v>32000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -13846,7 +13856,7 @@
       </c>
       <c r="G16" s="31">
         <f>G10</f>
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -13940,13 +13950,21 @@
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
+      <c r="B22" s="34" t="s">
+        <v>169</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="13">
+        <v>4055</v>
+      </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="34" t="s">
+        <v>169</v>
+      </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>4055</v>
+      </c>
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -14000,26 +14018,25 @@
       </c>
       <c r="D27" s="17">
         <f>SUM(D21:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <f>C27-D27</f>
-        <v>31827</v>
+        <v>4055</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="17">
         <f>G16+G18-H20</f>
-        <v>-173</v>
+        <v>10827</v>
       </c>
       <c r="H27" s="17">
         <f>SUM(H21:H26)</f>
-        <v>0</v>
+        <v>4055</v>
       </c>
       <c r="I27" s="17">
         <f>G27-H27</f>
-        <v>-173</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
